--- a/配置表/Fish002.xlsx
+++ b/配置表/Fish002.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\gitee\danmufishKuaishou\配置表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\gitee\danmufishKSGit\配置表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6495C1A7-8F48-4F22-9F8B-B7A0841E84C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5678956C-7EB3-42B3-BA83-EFB8086689B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="180">
   <si>
     <t>id</t>
   </si>
@@ -191,46 +191,7 @@
     <t>鹦鹉螺</t>
   </si>
   <si>
-    <t>Fish/fish02/1022601</t>
-  </si>
-  <si>
-    <t>Fish/fish02/1022701</t>
-  </si>
-  <si>
-    <t>Fish/fish02/1022801</t>
-  </si>
-  <si>
-    <t>Fish/fish02/1022901</t>
-  </si>
-  <si>
-    <t>Fish/fish02/1023001</t>
-  </si>
-  <si>
-    <t>Fish/fish02/1023101</t>
-  </si>
-  <si>
-    <t>Fish/fish02/1023201</t>
-  </si>
-  <si>
     <t>海葵</t>
-  </si>
-  <si>
-    <t>Fish/fish02/1023301</t>
-  </si>
-  <si>
-    <t>Fish/fish02/1023401</t>
-  </si>
-  <si>
-    <t>Fish/fish02/1023501</t>
-  </si>
-  <si>
-    <t>Fish/fish02/1023601</t>
-  </si>
-  <si>
-    <t>Fish/fish02/1023701</t>
-  </si>
-  <si>
-    <t>Fish/fish02/1023801</t>
   </si>
   <si>
     <t>玩家</t>
@@ -678,122 +639,83 @@
     <t>扇上秋风</t>
   </si>
   <si>
-    <t>霓虹脂鲤</t>
-  </si>
-  <si>
-    <t>小蜜蜂鱼</t>
-  </si>
-  <si>
-    <t>白斑托比</t>
-  </si>
-  <si>
-    <t>大鳞脂鲤</t>
-  </si>
-  <si>
-    <t>血鳍脂鲤</t>
-  </si>
-  <si>
-    <t>埃及神仙鱼</t>
-  </si>
-  <si>
-    <t>河鲈</t>
-  </si>
-  <si>
-    <t>底栖腔鲈</t>
-  </si>
-  <si>
-    <t>黑斑太阳鱼</t>
-  </si>
-  <si>
-    <t>杜父鱼</t>
-  </si>
-  <si>
-    <t>银鲤</t>
-  </si>
-  <si>
-    <t>鹰鱼</t>
-  </si>
-  <si>
-    <t>扁脂鲤</t>
-  </si>
-  <si>
-    <t>香附鲤</t>
-  </si>
-  <si>
-    <t>黑珍珠鳉鱼</t>
-  </si>
-  <si>
-    <t>扳机鱼</t>
-  </si>
-  <si>
-    <t>贵玉屈鱼</t>
-  </si>
-  <si>
-    <t>鲳参鱼</t>
-  </si>
-  <si>
-    <t>克利奥鲈鱼</t>
-  </si>
-  <si>
-    <t>油鱼</t>
-  </si>
-  <si>
-    <t>碧古鱼</t>
-  </si>
-  <si>
-    <t>鲤鱼</t>
-  </si>
-  <si>
-    <t>舌齿鲈</t>
-  </si>
-  <si>
-    <t>灰鲈鱼</t>
-  </si>
-  <si>
-    <t>小眼须雅罗</t>
-  </si>
-  <si>
-    <t>大眼鰤鲈</t>
-  </si>
-  <si>
-    <t>亚马逊鳓</t>
-  </si>
-  <si>
-    <t>雅罗鱼</t>
-  </si>
-  <si>
-    <t>丁鱥</t>
-  </si>
-  <si>
-    <t>黑鱼</t>
-  </si>
-  <si>
-    <t>弓鳍鱼</t>
-  </si>
-  <si>
-    <t>大顎小脂鯉</t>
-  </si>
-  <si>
-    <t>淡水鳕</t>
-  </si>
-  <si>
-    <t>湖鳟鱼</t>
-  </si>
-  <si>
-    <t>梭鲈</t>
-  </si>
-  <si>
-    <t>大丝足鲈</t>
-  </si>
-  <si>
-    <t>多鳍鱼</t>
-  </si>
-  <si>
-    <t>欧鳇</t>
-  </si>
-  <si>
     <t>Fish/fish02/1021101</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>灯笼鱼</t>
+  </si>
+  <si>
+    <t>胡瓜鱼</t>
+  </si>
+  <si>
+    <t>大肚鲱</t>
+  </si>
+  <si>
+    <t>马鲛鱼</t>
+  </si>
+  <si>
+    <t>红大麻花鱼</t>
+  </si>
+  <si>
+    <t>鲑鳟鱼</t>
+  </si>
+  <si>
+    <t>大西洋鳕</t>
+  </si>
+  <si>
+    <t>鳞白甲鱼</t>
+  </si>
+  <si>
+    <t>奥木尔鱼</t>
+  </si>
+  <si>
+    <t>虹鳟</t>
+  </si>
+  <si>
+    <t>三文鱼</t>
+  </si>
+  <si>
+    <t>黑龙江鮰鱼</t>
+  </si>
+  <si>
+    <t>海鳟鱼</t>
+  </si>
+  <si>
+    <t>高白鲑</t>
+  </si>
+  <si>
+    <t>鲱形白鲑</t>
+  </si>
+  <si>
+    <t>雪鲮</t>
+  </si>
+  <si>
+    <t>似鲭水狼牙</t>
+  </si>
+  <si>
+    <t>哲罗鲑</t>
+  </si>
+  <si>
+    <t>大北鲑</t>
+  </si>
+  <si>
+    <t>白茴鱼</t>
+  </si>
+  <si>
+    <t>拿破仑鱼</t>
+  </si>
+  <si>
+    <t>赤梢雅罗鱼</t>
+  </si>
+  <si>
+    <t>帝王鲑</t>
+  </si>
+  <si>
+    <t>莉安夕</t>
+  </si>
+  <si>
+    <t>剑鱼</t>
   </si>
 </sst>
 </file>
@@ -1161,10 +1083,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M83"/>
+  <dimension ref="A1:M70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1265,19 +1187,19 @@
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="D3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>13180</v>
+        <v>25884</v>
       </c>
       <c r="G3" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>26</v>
@@ -1306,19 +1228,19 @@
         <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>12704</v>
+        <v>23979</v>
       </c>
       <c r="G4" s="6">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H4" t="s">
         <v>27</v>
@@ -1347,19 +1269,19 @@
         <v>0</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="D5">
+        <v>30</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>22073</v>
+      </c>
+      <c r="G5" s="6">
         <v>21</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>12228</v>
-      </c>
-      <c r="G5" s="6">
-        <v>12</v>
       </c>
       <c r="H5" t="s">
         <v>28</v>
@@ -1388,19 +1310,19 @@
         <v>0</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="D6">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>11751</v>
+        <v>20168</v>
       </c>
       <c r="G6" s="6">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="H6" t="s">
         <v>29</v>
@@ -1429,19 +1351,19 @@
         <v>0</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="D7">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>11275</v>
+        <v>9369</v>
       </c>
       <c r="G7" s="6">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="H7" t="s">
         <v>30</v>
@@ -1470,19 +1392,19 @@
         <v>0</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="D8">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>10798</v>
+        <v>8893</v>
       </c>
       <c r="G8" s="6">
-        <v>24</v>
+        <v>104</v>
       </c>
       <c r="H8" t="s">
         <v>31</v>
@@ -1511,19 +1433,19 @@
         <v>0</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="D9">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>10322</v>
+        <v>8416</v>
       </c>
       <c r="G9" s="6">
-        <v>36</v>
+        <v>112</v>
       </c>
       <c r="H9" t="s">
         <v>32</v>
@@ -1552,19 +1474,19 @@
         <v>0</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="D10">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>9846</v>
+        <v>7940</v>
       </c>
       <c r="G10" s="6">
-        <v>42</v>
+        <v>160</v>
       </c>
       <c r="H10" t="s">
         <v>33</v>
@@ -1593,19 +1515,19 @@
         <v>0</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D11">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>9369</v>
+        <v>7464</v>
       </c>
       <c r="G11" s="6">
-        <v>56</v>
+        <v>208</v>
       </c>
       <c r="H11" t="s">
         <v>34</v>
@@ -1634,19 +1556,19 @@
         <v>0</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="D12">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>8893</v>
+        <v>13498</v>
       </c>
       <c r="G12" s="6">
-        <v>104</v>
+        <v>400</v>
       </c>
       <c r="H12" t="s">
         <v>35</v>
@@ -1675,22 +1597,22 @@
         <v>0</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="D13">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>8416</v>
+        <v>11592</v>
       </c>
       <c r="G13" s="6">
-        <v>112</v>
+        <v>560</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>205</v>
+        <v>154</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -1716,19 +1638,19 @@
         <v>0</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="D14">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>7940</v>
+        <v>9687</v>
       </c>
       <c r="G14" s="6">
-        <v>160</v>
+        <v>760</v>
       </c>
       <c r="H14" t="s">
         <v>36</v>
@@ -1757,19 +1679,19 @@
         <v>0</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="D15">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>7464</v>
+        <v>4129</v>
       </c>
       <c r="G15" s="6">
-        <v>208</v>
+        <v>880</v>
       </c>
       <c r="H15" t="s">
         <v>37</v>
@@ -1798,19 +1720,19 @@
         <v>0</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="D16">
-        <v>49</v>
+        <v>107</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>6987</v>
+        <v>3652</v>
       </c>
       <c r="G16" s="6">
-        <v>320</v>
+        <v>960</v>
       </c>
       <c r="H16" t="s">
         <v>38</v>
@@ -1839,19 +1761,19 @@
         <v>0</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="D17">
-        <v>53</v>
+        <v>132</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>6511</v>
+        <v>3176</v>
       </c>
       <c r="G17" s="6">
-        <v>480</v>
+        <v>1200</v>
       </c>
       <c r="H17" t="s">
         <v>39</v>
@@ -1880,19 +1802,19 @@
         <v>0</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="D18">
-        <v>57</v>
+        <v>134</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>6034</v>
+        <v>2700</v>
       </c>
       <c r="G18" s="6">
-        <v>480</v>
+        <v>1920</v>
       </c>
       <c r="H18" t="s">
         <v>40</v>
@@ -1921,19 +1843,19 @@
         <v>0</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="D19">
-        <v>62</v>
+        <v>146</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>5558</v>
+        <v>3070</v>
       </c>
       <c r="G19" s="6">
-        <v>640</v>
+        <v>2176</v>
       </c>
       <c r="H19" t="s">
         <v>41</v>
@@ -1962,19 +1884,19 @@
         <v>0</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="D20">
-        <v>67</v>
+        <v>189</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>5082</v>
+        <v>2510</v>
       </c>
       <c r="G20" s="6">
-        <v>720</v>
+        <v>2816</v>
       </c>
       <c r="H20" t="s">
         <v>42</v>
@@ -2003,19 +1925,19 @@
         <v>0</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="D21">
-        <v>72</v>
+        <v>209</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>4605</v>
+        <v>1950</v>
       </c>
       <c r="G21" s="6">
-        <v>800</v>
+        <v>3328</v>
       </c>
       <c r="H21" t="s">
         <v>43</v>
@@ -2044,19 +1966,19 @@
         <v>0</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="D22">
-        <v>78</v>
+        <v>215</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>4129</v>
+        <v>765</v>
       </c>
       <c r="G22" s="6">
-        <v>880</v>
+        <v>3840</v>
       </c>
       <c r="H22" t="s">
         <v>44</v>
@@ -2085,19 +2007,19 @@
         <v>0</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="D23">
-        <v>84</v>
+        <v>221</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>3652</v>
+        <v>625</v>
       </c>
       <c r="G23" s="6">
-        <v>960</v>
+        <v>4608</v>
       </c>
       <c r="H23" t="s">
         <v>45</v>
@@ -2126,19 +2048,19 @@
         <v>0</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="D24">
-        <v>91</v>
+        <v>281</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>3176</v>
+        <v>391</v>
       </c>
       <c r="G24" s="6">
-        <v>1200</v>
+        <v>5248</v>
       </c>
       <c r="H24" t="s">
         <v>46</v>
@@ -2167,19 +2089,19 @@
         <v>0</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="D25">
-        <v>98</v>
+        <v>323</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>2700</v>
+        <v>269</v>
       </c>
       <c r="G25" s="6">
-        <v>1920</v>
+        <v>8960</v>
       </c>
       <c r="H25" t="s">
         <v>47</v>
@@ -2207,20 +2129,20 @@
       <c r="B26">
         <v>0</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>190</v>
+      <c r="C26" t="s">
+        <v>179</v>
       </c>
       <c r="D26">
-        <v>106</v>
+        <v>410</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>1605</v>
+        <v>99</v>
       </c>
       <c r="G26" s="6">
-        <v>2048</v>
+        <v>12800</v>
       </c>
       <c r="H26" t="s">
         <v>48</v>
@@ -2248,20 +2170,20 @@
       <c r="B27">
         <v>0</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>191</v>
+      <c r="C27" t="s">
+        <v>178</v>
       </c>
       <c r="D27">
-        <v>114</v>
+        <v>450</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F27">
-        <v>1465</v>
+        <v>80</v>
       </c>
       <c r="G27" s="6">
-        <v>2304</v>
+        <v>17280</v>
       </c>
       <c r="H27" t="s">
         <v>49</v>
@@ -2273,7 +2195,7 @@
         <v>0</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -2284,28 +2206,28 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A28">
-        <v>1022601</v>
+        <v>1000002</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>192</v>
+        <v>52</v>
       </c>
       <c r="D28">
-        <v>123</v>
+        <v>500</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F28">
-        <v>1325</v>
+        <v>25</v>
       </c>
       <c r="G28" s="6">
-        <v>2560</v>
+        <v>23110</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I28">
         <v>1</v>
@@ -2325,31 +2247,31 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A29">
-        <v>1022701</v>
+        <v>2000101</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>193</v>
+        <v>54</v>
       </c>
       <c r="D29">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>1185</v>
+        <v>1</v>
       </c>
       <c r="G29" s="6">
-        <v>3072</v>
+        <v>23333</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -2366,31 +2288,31 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A30">
-        <v>1022801</v>
+        <v>2000102</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>194</v>
+        <v>56</v>
       </c>
       <c r="D30">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>1045</v>
-      </c>
-      <c r="G30" s="6">
-        <v>3072</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>53</v>
+        <v>72</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30" t="s">
+        <v>57</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -2407,31 +2329,31 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A31">
-        <v>1022901</v>
+        <v>2000103</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>195</v>
+        <v>58</v>
       </c>
       <c r="D31">
-        <v>156</v>
+        <v>15</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>905</v>
-      </c>
-      <c r="G31" s="6">
-        <v>3584</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>54</v>
+        <v>72</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31" t="s">
+        <v>59</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -2448,31 +2370,31 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A32">
-        <v>1023001</v>
+        <v>2000104</v>
       </c>
       <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>196</v>
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>60</v>
       </c>
       <c r="D32">
-        <v>168</v>
+        <v>35</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>765</v>
-      </c>
-      <c r="G32" s="6">
-        <v>3840</v>
+        <v>72</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -2489,31 +2411,31 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A33">
-        <v>1023101</v>
+        <v>2000105</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>197</v>
+        <v>62</v>
       </c>
       <c r="D33">
-        <v>181</v>
+        <v>25</v>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>625</v>
-      </c>
-      <c r="G33" s="6">
-        <v>4608</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>56</v>
+        <v>72</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33" t="s">
+        <v>63</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -2530,31 +2452,31 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A34">
-        <v>1023201</v>
+        <v>2000106</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>198</v>
+        <v>64</v>
       </c>
       <c r="D34">
-        <v>195</v>
+        <v>1</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>221</v>
-      </c>
-      <c r="G34" s="6">
-        <v>5120</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>57</v>
+        <v>72</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34" t="s">
+        <v>65</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -2571,31 +2493,31 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A35">
-        <v>1023301</v>
+        <v>2000107</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>199</v>
+        <v>66</v>
       </c>
       <c r="D35">
-        <v>211</v>
+        <v>48</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>170</v>
-      </c>
-      <c r="G35" s="6">
-        <v>5376</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>59</v>
+        <v>72</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35" t="s">
+        <v>67</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -2612,31 +2534,31 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A36">
-        <v>1023401</v>
+        <v>2000108</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>200</v>
+        <v>68</v>
       </c>
       <c r="D36">
-        <v>228</v>
+        <v>56</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>148</v>
-      </c>
-      <c r="G36" s="6">
-        <v>7680</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>60</v>
+        <v>72</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36" t="s">
+        <v>69</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -2652,32 +2574,32 @@
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A37">
-        <v>1023501</v>
+      <c r="A37" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>201</v>
+        <v>71</v>
       </c>
       <c r="D37">
-        <v>246</v>
+        <v>75</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>121</v>
-      </c>
-      <c r="G37" s="6">
-        <v>10240</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>61</v>
+        <v>72</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37" t="s">
+        <v>72</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -2694,31 +2616,31 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A38">
-        <v>1023601</v>
+        <v>2000110</v>
       </c>
       <c r="B38">
-        <v>0</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>202</v>
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>73</v>
       </c>
       <c r="D38">
-        <v>266</v>
+        <v>99</v>
       </c>
       <c r="E38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>99</v>
-      </c>
-      <c r="G38" s="6">
-        <v>12800</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>62</v>
+        <v>72</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38" t="s">
+        <v>74</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -2735,31 +2657,31 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A39">
-        <v>1023701</v>
+        <v>2000111</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>203</v>
+        <v>75</v>
       </c>
       <c r="D39">
-        <v>287</v>
+        <v>80</v>
       </c>
       <c r="E39">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>45</v>
-      </c>
-      <c r="G39" s="6">
-        <v>15360</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>63</v>
+        <v>72</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39" t="s">
+        <v>76</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -2775,35 +2697,35 @@
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A40">
-        <v>1023801</v>
+      <c r="A40" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="B40">
-        <v>0</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>204</v>
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>78</v>
       </c>
       <c r="D40">
-        <v>435</v>
+        <v>30</v>
       </c>
       <c r="E40">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>35</v>
-      </c>
-      <c r="G40" s="6">
-        <v>19200</v>
+        <v>72</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -2816,32 +2738,32 @@
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A41">
-        <v>1000002</v>
+      <c r="A41" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="B41">
-        <v>0</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>65</v>
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>81</v>
       </c>
       <c r="D41">
-        <v>180</v>
+        <v>21</v>
       </c>
       <c r="E41">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>25</v>
-      </c>
-      <c r="G41" s="6">
-        <v>23110</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41" t="s">
+        <v>82</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -2858,16 +2780,16 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A42">
-        <v>2000101</v>
+        <v>2000114</v>
       </c>
       <c r="B42">
         <v>1</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>67</v>
+      <c r="C42" t="s">
+        <v>83</v>
       </c>
       <c r="D42">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2878,8 +2800,8 @@
       <c r="G42">
         <v>1</v>
       </c>
-      <c r="H42" s="2" t="s">
-        <v>68</v>
+      <c r="H42" t="s">
+        <v>84</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -2899,16 +2821,16 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A43">
-        <v>2000102</v>
+        <v>2000115</v>
       </c>
       <c r="B43">
         <v>1</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="D43">
-        <v>160</v>
+        <v>35</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2917,10 +2839,10 @@
         <v>72</v>
       </c>
       <c r="G43">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="H43" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -2940,16 +2862,16 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A44">
-        <v>2000103</v>
+        <v>2000116</v>
       </c>
       <c r="B44">
         <v>1</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="D44">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2958,10 +2880,10 @@
         <v>72</v>
       </c>
       <c r="G44">
-        <v>1</v>
+        <v>79</v>
       </c>
       <c r="H44" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -2981,16 +2903,16 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A45">
-        <v>2000104</v>
+        <v>2000117</v>
       </c>
       <c r="B45">
         <v>1</v>
       </c>
-      <c r="C45" t="s">
-        <v>73</v>
+      <c r="C45" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="D45">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2999,10 +2921,10 @@
         <v>72</v>
       </c>
       <c r="G45">
-        <v>1</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>74</v>
+        <v>90</v>
+      </c>
+      <c r="H45" t="s">
+        <v>90</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -3022,16 +2944,16 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A46">
-        <v>2000105</v>
+        <v>2000118</v>
       </c>
       <c r="B46">
         <v>1</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="D46">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -3040,10 +2962,10 @@
         <v>72</v>
       </c>
       <c r="G46">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H46" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -3063,16 +2985,16 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A47">
-        <v>2000106</v>
+        <v>2000119</v>
       </c>
       <c r="B47">
         <v>1</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -3081,10 +3003,10 @@
         <v>72</v>
       </c>
       <c r="G47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H47" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -3104,16 +3026,16 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A48">
-        <v>2000107</v>
+        <v>2000120</v>
       </c>
       <c r="B48">
         <v>1</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="D48">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -3122,10 +3044,10 @@
         <v>72</v>
       </c>
       <c r="G48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H48" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -3145,16 +3067,16 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A49">
-        <v>2000108</v>
+        <v>2000122</v>
       </c>
       <c r="B49">
         <v>1</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="D49">
-        <v>56</v>
+        <v>500</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -3165,8 +3087,8 @@
       <c r="G49">
         <v>1</v>
       </c>
-      <c r="H49" t="s">
-        <v>82</v>
+      <c r="H49" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="I49">
         <v>0</v>
@@ -3185,17 +3107,17 @@
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A50" s="2" t="s">
-        <v>83</v>
+      <c r="A50">
+        <v>2000123</v>
       </c>
       <c r="B50">
         <v>1</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="D50">
-        <v>75</v>
+        <v>203</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -3204,10 +3126,10 @@
         <v>72</v>
       </c>
       <c r="G50">
-        <v>1</v>
-      </c>
-      <c r="H50" t="s">
-        <v>85</v>
+        <v>42</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -3227,16 +3149,16 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A51">
-        <v>2000110</v>
+        <v>2000124</v>
       </c>
       <c r="B51">
         <v>1</v>
       </c>
-      <c r="C51" t="s">
-        <v>86</v>
+      <c r="C51" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="D51">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -3245,10 +3167,10 @@
         <v>72</v>
       </c>
       <c r="G51">
-        <v>1</v>
-      </c>
-      <c r="H51" t="s">
-        <v>87</v>
+        <v>58</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -3268,16 +3190,16 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A52">
-        <v>2000111</v>
+        <v>2000125</v>
       </c>
       <c r="B52">
         <v>1</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="D52">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -3286,10 +3208,10 @@
         <v>72</v>
       </c>
       <c r="G52">
-        <v>1</v>
-      </c>
-      <c r="H52" t="s">
-        <v>89</v>
+        <v>6</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -3307,560 +3229,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A53" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B53">
-        <v>1</v>
-      </c>
-      <c r="C53" t="s">
-        <v>91</v>
-      </c>
-      <c r="D53">
-        <v>30</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <v>72</v>
-      </c>
-      <c r="G53">
-        <v>1</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-      <c r="J53">
-        <v>0</v>
-      </c>
-      <c r="K53">
-        <v>0</v>
-      </c>
-      <c r="L53">
-        <v>0</v>
-      </c>
-      <c r="M53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A54" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B54">
-        <v>1</v>
-      </c>
-      <c r="C54" t="s">
-        <v>94</v>
-      </c>
-      <c r="D54">
-        <v>21</v>
-      </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="F54">
-        <v>72</v>
-      </c>
-      <c r="G54">
-        <v>1</v>
-      </c>
-      <c r="H54" t="s">
-        <v>95</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-      <c r="K54">
-        <v>0</v>
-      </c>
-      <c r="L54">
-        <v>0</v>
-      </c>
-      <c r="M54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A55">
-        <v>2000114</v>
-      </c>
-      <c r="B55">
-        <v>1</v>
-      </c>
-      <c r="C55" t="s">
-        <v>96</v>
-      </c>
-      <c r="D55">
-        <v>15</v>
-      </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="F55">
-        <v>72</v>
-      </c>
-      <c r="G55">
-        <v>1</v>
-      </c>
-      <c r="H55" t="s">
-        <v>97</v>
-      </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
-      <c r="K55">
-        <v>0</v>
-      </c>
-      <c r="L55">
-        <v>0</v>
-      </c>
-      <c r="M55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A56">
-        <v>2000115</v>
-      </c>
-      <c r="B56">
-        <v>1</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D56">
-        <v>35</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="F56">
-        <v>72</v>
-      </c>
-      <c r="G56">
-        <v>82</v>
-      </c>
-      <c r="H56" t="s">
-        <v>99</v>
-      </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-      <c r="J56">
-        <v>0</v>
-      </c>
-      <c r="K56">
-        <v>0</v>
-      </c>
-      <c r="L56">
-        <v>0</v>
-      </c>
-      <c r="M56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A57">
-        <v>2000116</v>
-      </c>
-      <c r="B57">
-        <v>1</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D57">
-        <v>28</v>
-      </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-      <c r="F57">
-        <v>72</v>
-      </c>
-      <c r="G57">
-        <v>79</v>
-      </c>
-      <c r="H57" t="s">
-        <v>101</v>
-      </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
-      <c r="J57">
-        <v>0</v>
-      </c>
-      <c r="K57">
-        <v>0</v>
-      </c>
-      <c r="L57">
-        <v>0</v>
-      </c>
-      <c r="M57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A58">
-        <v>2000117</v>
-      </c>
-      <c r="B58">
-        <v>1</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D58">
-        <v>15</v>
-      </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
-      <c r="F58">
-        <v>72</v>
-      </c>
-      <c r="G58">
-        <v>90</v>
-      </c>
-      <c r="H58" t="s">
-        <v>103</v>
-      </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
-      <c r="J58">
-        <v>0</v>
-      </c>
-      <c r="K58">
-        <v>0</v>
-      </c>
-      <c r="L58">
-        <v>0</v>
-      </c>
-      <c r="M58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A59">
-        <v>2000118</v>
-      </c>
-      <c r="B59">
-        <v>1</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D59">
-        <v>10</v>
-      </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
-      <c r="F59">
-        <v>72</v>
-      </c>
-      <c r="G59">
-        <v>6</v>
-      </c>
-      <c r="H59" t="s">
-        <v>105</v>
-      </c>
-      <c r="I59">
-        <v>0</v>
-      </c>
-      <c r="J59">
-        <v>0</v>
-      </c>
-      <c r="K59">
-        <v>0</v>
-      </c>
-      <c r="L59">
-        <v>0</v>
-      </c>
-      <c r="M59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A60">
-        <v>2000119</v>
-      </c>
-      <c r="B60">
-        <v>1</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D60">
-        <v>13</v>
-      </c>
-      <c r="E60">
-        <v>0</v>
-      </c>
-      <c r="F60">
-        <v>72</v>
-      </c>
-      <c r="G60">
-        <v>3</v>
-      </c>
-      <c r="H60" t="s">
-        <v>107</v>
-      </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
-      <c r="K60">
-        <v>0</v>
-      </c>
-      <c r="L60">
-        <v>0</v>
-      </c>
-      <c r="M60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A61">
-        <v>2000120</v>
-      </c>
-      <c r="B61">
-        <v>1</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D61">
-        <v>8</v>
-      </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
-      <c r="F61">
-        <v>72</v>
-      </c>
-      <c r="G61">
-        <v>2</v>
-      </c>
-      <c r="H61" t="s">
-        <v>109</v>
-      </c>
-      <c r="I61">
-        <v>0</v>
-      </c>
-      <c r="J61">
-        <v>0</v>
-      </c>
-      <c r="K61">
-        <v>0</v>
-      </c>
-      <c r="L61">
-        <v>0</v>
-      </c>
-      <c r="M61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A62">
-        <v>2000122</v>
-      </c>
-      <c r="B62">
-        <v>1</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D62">
-        <v>500</v>
-      </c>
-      <c r="E62">
-        <v>0</v>
-      </c>
-      <c r="F62">
-        <v>72</v>
-      </c>
-      <c r="G62">
-        <v>1</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="I62">
-        <v>0</v>
-      </c>
-      <c r="J62">
-        <v>0</v>
-      </c>
-      <c r="K62">
-        <v>0</v>
-      </c>
-      <c r="L62">
-        <v>0</v>
-      </c>
-      <c r="M62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A63">
-        <v>2000123</v>
-      </c>
-      <c r="B63">
-        <v>1</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D63">
-        <v>203</v>
-      </c>
-      <c r="E63">
-        <v>0</v>
-      </c>
-      <c r="F63">
-        <v>72</v>
-      </c>
-      <c r="G63">
-        <v>42</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
-      <c r="J63">
-        <v>0</v>
-      </c>
-      <c r="K63">
-        <v>0</v>
-      </c>
-      <c r="L63">
-        <v>0</v>
-      </c>
-      <c r="M63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A64">
-        <v>2000124</v>
-      </c>
-      <c r="B64">
-        <v>1</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D64">
-        <v>13</v>
-      </c>
-      <c r="E64">
-        <v>0</v>
-      </c>
-      <c r="F64">
-        <v>72</v>
-      </c>
-      <c r="G64">
-        <v>58</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
-      <c r="J64">
-        <v>0</v>
-      </c>
-      <c r="K64">
-        <v>0</v>
-      </c>
-      <c r="L64">
-        <v>0</v>
-      </c>
-      <c r="M64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A65">
-        <v>2000125</v>
-      </c>
-      <c r="B65">
-        <v>1</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D65">
-        <v>8</v>
-      </c>
-      <c r="E65">
-        <v>0</v>
-      </c>
-      <c r="F65">
-        <v>72</v>
-      </c>
-      <c r="G65">
-        <v>6</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="I65">
-        <v>0</v>
-      </c>
-      <c r="J65">
-        <v>0</v>
-      </c>
-      <c r="K65">
-        <v>0</v>
-      </c>
-      <c r="L65">
-        <v>0</v>
-      </c>
-      <c r="M65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A79" s="2"/>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A80" s="2"/>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A81" s="2"/>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A82" s="2"/>
-      <c r="C82" s="2"/>
-      <c r="H82" s="2"/>
-      <c r="I82" s="2"/>
-      <c r="J82" s="2"/>
-      <c r="K82" s="2"/>
-      <c r="L82" s="2"/>
-      <c r="M82" s="2"/>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="M83" s="2"/>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A66" s="2"/>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A67" s="2"/>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A68" s="2"/>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2"/>
+      <c r="L69" s="2"/>
+      <c r="M69" s="2"/>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M70" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -3881,7 +3270,7 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="C2">
         <v>1010101</v>
@@ -3889,39 +3278,39 @@
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -3980,7 +3369,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -4008,7 +3397,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -4036,7 +3425,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -4064,7 +3453,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -4092,7 +3481,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -4120,7 +3509,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -4148,7 +3537,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -4176,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -4204,7 +3593,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -4232,7 +3621,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -4260,7 +3649,7 @@
         <v>0</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -4288,7 +3677,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -4344,7 +3733,7 @@
         <v>0</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -4372,7 +3761,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -4400,7 +3789,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -4428,7 +3817,7 @@
         <v>0</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -4456,7 +3845,7 @@
         <v>0</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -4484,7 +3873,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -4512,7 +3901,7 @@
         <v>0</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -4540,7 +3929,7 @@
         <v>0</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -4568,7 +3957,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -4596,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -4624,7 +4013,7 @@
         <v>0</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -4653,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="D27">
         <v>2</v>
@@ -4682,7 +4071,7 @@
         <v>0</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="D28">
         <v>2</v>
@@ -4711,7 +4100,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -4740,7 +4129,7 @@
         <v>0</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="D30">
         <v>2</v>
@@ -4769,7 +4158,7 @@
         <v>0</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="D31">
         <v>2</v>
@@ -4798,7 +4187,7 @@
         <v>0</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="D32">
         <v>2</v>
@@ -4827,7 +4216,7 @@
         <v>0</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="D33">
         <v>3</v>
@@ -4856,7 +4245,7 @@
         <v>0</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="D34">
         <v>3</v>
@@ -4885,7 +4274,7 @@
         <v>0</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="D35">
         <v>3</v>
@@ -4914,7 +4303,7 @@
         <v>0</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="D36">
         <v>3</v>
@@ -4943,7 +4332,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="D37">
         <v>3</v>
@@ -4972,7 +4361,7 @@
         <v>0</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="D38">
         <v>4</v>
@@ -5001,7 +4390,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="D39">
         <v>4</v>
@@ -5030,7 +4419,7 @@
         <v>0</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="D40">
         <v>4</v>
@@ -6418,7 +5807,7 @@
         <v>8400</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="T33">
         <f t="shared" si="1"/>
@@ -6447,7 +5836,7 @@
         <v>8000</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="T34">
         <f t="shared" si="1"/>
@@ -6476,7 +5865,7 @@
         <v>12000</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="T35">
         <f t="shared" si="1"/>
@@ -6505,7 +5894,7 @@
         <v>16000</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="T36">
         <f t="shared" si="1"/>
@@ -6549,7 +5938,7 @@
         <v>24000</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="T37">
         <f t="shared" si="1"/>

--- a/配置表/Fish002.xlsx
+++ b/配置表/Fish002.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\gitee\danmufishKSGit\配置表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5678956C-7EB3-42B3-BA83-EFB8086689B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2145642-B363-4529-A3ED-82941B8B271B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fish002" sheetId="1" r:id="rId1"/>
@@ -1086,7 +1086,7 @@
   <dimension ref="A1:M70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="A27" sqref="A27:XFD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2192,10 +2192,10 @@
         <v>1</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27">
         <v>0</v>
